--- a/docs/電腦繪圖國中甲組靜態類決賽名冊.xlsx
+++ b/docs/電腦繪圖國中甲組靜態類決賽名冊.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\IDEAProjects\readxls\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\資網中心\試場安排\2019資料\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4140"/>
   </bookViews>
   <sheets>
     <sheet name="電腦繪圖國中甲組靜態類決賽名冊" sheetId="1" r:id="rId1"/>
@@ -51,406 +51,298 @@
     <t>大甲區大甲國中</t>
   </si>
   <si>
-    <t>饒祐瑄</t>
+    <t>湯心瑜</t>
   </si>
   <si>
     <t>張曼莉</t>
   </si>
   <si>
-    <t>MyPaint 1.2.1</t>
-  </si>
-  <si>
-    <t>tv69nc4</t>
-  </si>
-  <si>
-    <t>rsm56v3</t>
-  </si>
-  <si>
-    <t>詹庭葳</t>
-  </si>
-  <si>
-    <t>rs26xb2</t>
-  </si>
-  <si>
-    <t>my16d7</t>
-  </si>
-  <si>
-    <t>柯姸汝</t>
-  </si>
-  <si>
-    <t>et25f6</t>
-  </si>
-  <si>
-    <t>k18b8</t>
-  </si>
-  <si>
-    <t>杜芊宜</t>
-  </si>
-  <si>
-    <t>jk3my6</t>
-  </si>
-  <si>
-    <t>kf12b8</t>
+    <t>Krita 4.1.7</t>
+  </si>
+  <si>
+    <t>sm66g8</t>
+  </si>
+  <si>
+    <t>fr91s7</t>
+  </si>
+  <si>
+    <t>紀宜辰</t>
+  </si>
+  <si>
+    <t>p81v5</t>
+  </si>
+  <si>
+    <t>f36a8</t>
   </si>
   <si>
     <t>大甲區順天國中</t>
   </si>
   <si>
-    <t>陳心容</t>
+    <t>蘇聖芳</t>
   </si>
   <si>
     <t>張志輝</t>
   </si>
   <si>
-    <t>Krita 3.3.3</t>
-  </si>
-  <si>
-    <t>kfr8x8</t>
-  </si>
-  <si>
-    <t>s71k7</t>
+    <t>Windows 小畫家</t>
+  </si>
+  <si>
+    <t>e7d2</t>
+  </si>
+  <si>
+    <t>g50jk2</t>
+  </si>
+  <si>
+    <t>陳子玲</t>
+  </si>
+  <si>
+    <t>黃証義</t>
+  </si>
+  <si>
+    <t>Gimp 2.10.8</t>
+  </si>
+  <si>
+    <t>bjk42an4</t>
+  </si>
+  <si>
+    <t>k50rs4</t>
   </si>
   <si>
     <t>大肚區大道國中</t>
   </si>
   <si>
-    <t>陳芷均</t>
+    <t>陳佳妘</t>
   </si>
   <si>
     <t>施俊楠</t>
   </si>
   <si>
-    <t>Gimp 2.8</t>
-  </si>
-  <si>
-    <t>bj76nc7</t>
-  </si>
-  <si>
-    <t>yg30n6</t>
-  </si>
-  <si>
-    <t>大里區成功國中</t>
-  </si>
-  <si>
-    <t>吳庭萱</t>
-  </si>
-  <si>
-    <t>許榮栓</t>
-  </si>
-  <si>
-    <t>my36k3</t>
-  </si>
-  <si>
-    <t>jk37b4</t>
-  </si>
-  <si>
-    <t>江嘉祐</t>
-  </si>
-  <si>
-    <t>賴姿婷</t>
-  </si>
-  <si>
-    <t>e15d8</t>
-  </si>
-  <si>
-    <t>p51g5</t>
-  </si>
-  <si>
-    <t>林千卉</t>
-  </si>
-  <si>
-    <t>bjk6m5</t>
-  </si>
-  <si>
-    <t>jk45m7</t>
-  </si>
-  <si>
-    <t>楊青蓓</t>
-  </si>
-  <si>
-    <t>cdx30et5</t>
-  </si>
-  <si>
-    <t>jk46s2</t>
+    <t>pe26r8</t>
+  </si>
+  <si>
+    <t>fr43gw6</t>
+  </si>
+  <si>
+    <t>趙甜雅</t>
+  </si>
+  <si>
+    <t>myg98d4</t>
+  </si>
+  <si>
+    <t>wh62k4</t>
+  </si>
+  <si>
+    <t>大里區光榮國中</t>
+  </si>
+  <si>
+    <t>戴佳恩</t>
+  </si>
+  <si>
+    <t>彭綉雯</t>
+  </si>
+  <si>
+    <t>h11m6</t>
+  </si>
+  <si>
+    <t>bjk30k6</t>
   </si>
   <si>
     <t>大里區爽文國中</t>
   </si>
   <si>
-    <t>陳以軒</t>
-  </si>
-  <si>
-    <t>陳怡姍</t>
-  </si>
-  <si>
-    <t>jkf40my2</t>
-  </si>
-  <si>
-    <t>rsm92hp5</t>
+    <t>楊佩璇</t>
+  </si>
+  <si>
+    <t>翁靖宣</t>
+  </si>
+  <si>
+    <t>bj34rs6</t>
+  </si>
+  <si>
+    <t>gw42d8</t>
+  </si>
+  <si>
+    <t>徐婉禎</t>
+  </si>
+  <si>
+    <t>an22x5</t>
+  </si>
+  <si>
+    <t>p81wh2</t>
   </si>
   <si>
     <t>林思妤</t>
   </si>
   <si>
-    <t>g40kf5</t>
-  </si>
-  <si>
-    <t>ygw24w4</t>
-  </si>
-  <si>
-    <t>楊子妤</t>
-  </si>
-  <si>
-    <t>j36v1</t>
-  </si>
-  <si>
-    <t>pe88x3</t>
+    <t>c76my2</t>
+  </si>
+  <si>
+    <t>dx51f2</t>
   </si>
   <si>
     <t>太平區中平國中</t>
   </si>
   <si>
-    <t>洪欣妤</t>
-  </si>
-  <si>
-    <t>沈俊卿</t>
-  </si>
-  <si>
-    <t>hp13t1</t>
-  </si>
-  <si>
-    <t>n82et2</t>
-  </si>
-  <si>
-    <t>蔡欣妤</t>
-  </si>
-  <si>
-    <t>t22sm7</t>
-  </si>
-  <si>
-    <t>p9cd5</t>
+    <t>黃雅梵</t>
+  </si>
+  <si>
+    <t>梁竣貿</t>
+  </si>
+  <si>
+    <t>hp47cd2</t>
+  </si>
+  <si>
+    <t>jkf36dx7</t>
+  </si>
+  <si>
+    <t>太平區太平國中</t>
+  </si>
+  <si>
+    <t>李于喬</t>
+  </si>
+  <si>
+    <t>邱堯章</t>
+  </si>
+  <si>
+    <t>hp58n7</t>
+  </si>
+  <si>
+    <t>kf89w5</t>
+  </si>
+  <si>
+    <t>太平區長億高中</t>
+  </si>
+  <si>
+    <t>賴紀臻</t>
+  </si>
+  <si>
+    <t>鄭瑞娟</t>
+  </si>
+  <si>
+    <t>nc52tv7</t>
+  </si>
+  <si>
+    <t>e44yg3</t>
+  </si>
+  <si>
+    <t>江敏豐</t>
+  </si>
+  <si>
+    <t>賴于婷</t>
+  </si>
+  <si>
+    <t>r64wh4</t>
+  </si>
+  <si>
+    <t>k46et4</t>
+  </si>
+  <si>
+    <t>陳宛儒</t>
+  </si>
+  <si>
+    <t>t26rs2</t>
+  </si>
+  <si>
+    <t>xbj20x3</t>
+  </si>
+  <si>
+    <t>盧玉純</t>
+  </si>
+  <si>
+    <t>吳秀甄</t>
+  </si>
+  <si>
+    <t>nc80wh3</t>
+  </si>
+  <si>
+    <t>k49s8</t>
   </si>
   <si>
     <t>太平區新光國中</t>
   </si>
   <si>
+    <t>黃湘伶</t>
+  </si>
+  <si>
+    <t>陳宗生</t>
+  </si>
+  <si>
+    <t>xbj37d7</t>
+  </si>
+  <si>
+    <t>tv92s4</t>
+  </si>
+  <si>
     <t>紀思羽</t>
   </si>
   <si>
-    <t>陳宗生</t>
-  </si>
-  <si>
-    <t>s17nc6</t>
-  </si>
-  <si>
-    <t>bjk60k1</t>
-  </si>
-  <si>
-    <t>周莓菱</t>
-  </si>
-  <si>
-    <t>my95yg4</t>
-  </si>
-  <si>
-    <t>dx39bj8</t>
-  </si>
-  <si>
-    <t>北屯區北新國中</t>
-  </si>
-  <si>
-    <t>張慈恩</t>
-  </si>
-  <si>
-    <t>李禮森</t>
-  </si>
-  <si>
-    <t>kf75my1</t>
-  </si>
-  <si>
-    <t>my83e3</t>
-  </si>
-  <si>
-    <t>羅可芸</t>
-  </si>
-  <si>
-    <t>ygw89t7</t>
-  </si>
-  <si>
-    <t>wh34y8</t>
-  </si>
-  <si>
-    <t>北屯區東山高中</t>
-  </si>
-  <si>
-    <t>周以琳</t>
-  </si>
-  <si>
-    <t>林昌宏</t>
-  </si>
-  <si>
-    <t>gwh13j6</t>
-  </si>
-  <si>
-    <t>ygw18a5</t>
-  </si>
-  <si>
-    <t>黃麗玲</t>
-  </si>
-  <si>
-    <t>鍾蕙如</t>
-  </si>
-  <si>
-    <t>bjk8hp7</t>
-  </si>
-  <si>
-    <t>gw59wh2</t>
-  </si>
-  <si>
-    <t>溫晨皓</t>
-  </si>
-  <si>
-    <t>xb1sm6</t>
-  </si>
-  <si>
-    <t>p17sm7</t>
+    <t>tv43j2</t>
+  </si>
+  <si>
+    <t>fr17y7</t>
   </si>
   <si>
     <t>北屯區崇德國中</t>
   </si>
   <si>
-    <t>吳瑜晴</t>
+    <t>陳映彤</t>
   </si>
   <si>
     <t>林秀珍</t>
   </si>
   <si>
-    <t>gwh78h7</t>
-  </si>
-  <si>
-    <t>yg44x7</t>
-  </si>
-  <si>
-    <t>北屯區衛道高中</t>
-  </si>
-  <si>
-    <t>何芯茹</t>
-  </si>
-  <si>
-    <t>郭學政</t>
-  </si>
-  <si>
-    <t>Windows 小畫家</t>
-  </si>
-  <si>
-    <t>s16kf1</t>
-  </si>
-  <si>
-    <t>pe74d9</t>
+    <t>wh79yg5</t>
+  </si>
+  <si>
+    <t>kfr55bj1</t>
   </si>
   <si>
     <t>北區五權國中</t>
   </si>
   <si>
-    <t>林曉葳</t>
+    <t>林佳蓁</t>
   </si>
   <si>
     <t>李黛君</t>
   </si>
   <si>
-    <t>p15c6</t>
-  </si>
-  <si>
-    <t>c35cd4</t>
-  </si>
-  <si>
-    <t>陳芷鈴</t>
-  </si>
-  <si>
-    <t>hpe86my9</t>
-  </si>
-  <si>
-    <t>nc75tv5</t>
-  </si>
-  <si>
-    <t>陳盈璇</t>
-  </si>
-  <si>
-    <t>hp48bj8</t>
-  </si>
-  <si>
-    <t>jk39hp2</t>
-  </si>
-  <si>
-    <t>黃靖云</t>
-  </si>
-  <si>
-    <t>hp43hp8</t>
-  </si>
-  <si>
-    <t>xb40g8</t>
+    <t>fr89p7</t>
+  </si>
+  <si>
+    <t>wh3c4</t>
+  </si>
+  <si>
+    <t>郭昕涵</t>
+  </si>
+  <si>
+    <t>tv25j8</t>
+  </si>
+  <si>
+    <t>wh15hp8</t>
   </si>
   <si>
     <t>后里區后綜高中</t>
   </si>
   <si>
+    <t>廖育德</t>
+  </si>
+  <si>
+    <t>李孟儒</t>
+  </si>
+  <si>
+    <t>cd14d6</t>
+  </si>
+  <si>
+    <t>rsm53tv9</t>
+  </si>
+  <si>
     <t>羅 淩</t>
   </si>
   <si>
-    <t>李孟儒</t>
-  </si>
-  <si>
-    <t>cdx90f7</t>
-  </si>
-  <si>
-    <t>jk78a4</t>
-  </si>
-  <si>
-    <t>邱楷晴</t>
-  </si>
-  <si>
-    <t>tv63nc6</t>
-  </si>
-  <si>
-    <t>whp77my5</t>
-  </si>
-  <si>
-    <t>王筱榕</t>
-  </si>
-  <si>
-    <t>w80tv5</t>
-  </si>
-  <si>
-    <t>pe42g3</t>
-  </si>
-  <si>
-    <t>西屯區安和國中</t>
-  </si>
-  <si>
-    <t>魏沛筳</t>
-  </si>
-  <si>
-    <t>林義雄</t>
-  </si>
-  <si>
-    <t>fr33k3</t>
-  </si>
-  <si>
-    <t>jk41y7</t>
-  </si>
-  <si>
-    <t>西屯區西苑高中</t>
-  </si>
-  <si>
-    <t>張喬涵</t>
-  </si>
-  <si>
-    <t>柯靜芬</t>
-  </si>
-  <si>
-    <t>n32e8</t>
-  </si>
-  <si>
-    <t>rsm29j1</t>
+    <t>yg68pe2</t>
+  </si>
+  <si>
+    <t>gw42k2</t>
   </si>
   <si>
     <t>西屯區漢口國中</t>
@@ -459,67 +351,181 @@
     <t>林育亘</t>
   </si>
   <si>
-    <t>林炘焄</t>
-  </si>
-  <si>
-    <t>hp83bj3</t>
-  </si>
-  <si>
-    <t>smy68d3</t>
+    <t>邱榮泰</t>
+  </si>
+  <si>
+    <t>yg4tv2</t>
+  </si>
+  <si>
+    <t>pet54xb4</t>
+  </si>
+  <si>
+    <t>陳宥臻</t>
+  </si>
+  <si>
+    <t>顏永山</t>
+  </si>
+  <si>
+    <t>nc84k9</t>
+  </si>
+  <si>
+    <t>ncd23an4</t>
+  </si>
+  <si>
+    <t>王莉鈞</t>
+  </si>
+  <si>
+    <t>p4f4</t>
+  </si>
+  <si>
+    <t>tv77x2</t>
+  </si>
+  <si>
+    <t>林瑀涵</t>
+  </si>
+  <si>
+    <t>yg74sm6</t>
+  </si>
+  <si>
+    <t>cdx6w8</t>
   </si>
   <si>
     <t>西屯區福科國中</t>
   </si>
   <si>
-    <t>劉家菱</t>
+    <t>陳品捷</t>
   </si>
   <si>
     <t>何宜霖</t>
   </si>
   <si>
-    <t>w85sm3</t>
-  </si>
-  <si>
-    <t>r4f7</t>
+    <t>my59h5</t>
+  </si>
+  <si>
+    <t>xb36n5</t>
+  </si>
+  <si>
+    <t>西區光明國中</t>
+  </si>
+  <si>
+    <t>吳書妤</t>
+  </si>
+  <si>
+    <t>蔡淑君</t>
+  </si>
+  <si>
+    <t>rs15f8</t>
+  </si>
+  <si>
+    <t>dxb53c1</t>
+  </si>
+  <si>
+    <t>林昱岑</t>
+  </si>
+  <si>
+    <t>cd66m2</t>
+  </si>
+  <si>
+    <t>yg31dx5</t>
+  </si>
+  <si>
+    <t>西區向上國中</t>
+  </si>
+  <si>
+    <t>張宇崴</t>
+  </si>
+  <si>
+    <t>陳采青</t>
+  </si>
+  <si>
+    <t>p9r4</t>
+  </si>
+  <si>
+    <t>tv92e9</t>
+  </si>
+  <si>
+    <t>陳楷鈞</t>
+  </si>
+  <si>
+    <t>游君如</t>
+  </si>
+  <si>
+    <t>rs24fr3</t>
+  </si>
+  <si>
+    <t>gw3p7</t>
+  </si>
+  <si>
+    <t>林映辰</t>
+  </si>
+  <si>
+    <t>sm36h8</t>
+  </si>
+  <si>
+    <t>kf67bj1</t>
+  </si>
+  <si>
+    <t>劉子彤</t>
+  </si>
+  <si>
+    <t>xb80jk1</t>
+  </si>
+  <si>
+    <t>rs81wh6</t>
   </si>
   <si>
     <t>西區居仁國中</t>
   </si>
   <si>
-    <t>郭宛婷</t>
+    <t>詹艾桐</t>
   </si>
   <si>
     <t>吳智偉</t>
   </si>
   <si>
-    <t>smy52dx5</t>
-  </si>
-  <si>
-    <t>n37k5</t>
+    <t>my5yg3</t>
+  </si>
+  <si>
+    <t>gwh81m2</t>
   </si>
   <si>
     <t>沙鹿區沙鹿國中</t>
   </si>
   <si>
-    <t>許倢瑜</t>
+    <t>李宜蓁</t>
   </si>
   <si>
     <t>王春昇</t>
   </si>
   <si>
-    <t>tv60h4</t>
-  </si>
-  <si>
-    <t>tv45dx7</t>
-  </si>
-  <si>
-    <t>姚雅淳</t>
-  </si>
-  <si>
-    <t>m25e1</t>
-  </si>
-  <si>
-    <t>fr15g1</t>
+    <t>w87x2</t>
+  </si>
+  <si>
+    <t>frs36b2</t>
+  </si>
+  <si>
+    <t>古旻仙</t>
+  </si>
+  <si>
+    <t>ygw94n5</t>
+  </si>
+  <si>
+    <t>jkf54hp7</t>
+  </si>
+  <si>
+    <t>沙鹿區鹿寮國中</t>
+  </si>
+  <si>
+    <t>林詩蘋</t>
+  </si>
+  <si>
+    <t>賴昭仁</t>
+  </si>
+  <si>
+    <t>h47sm3</t>
+  </si>
+  <si>
+    <t>gw25d3</t>
   </si>
   <si>
     <t>南屯區大業國中</t>
@@ -528,154 +534,148 @@
     <t>吳倍宇</t>
   </si>
   <si>
-    <t>陳易紘</t>
-  </si>
-  <si>
-    <t>cd97e8</t>
-  </si>
-  <si>
-    <t>whp96w6</t>
-  </si>
-  <si>
-    <t>賴佩旻</t>
-  </si>
-  <si>
-    <t>yg90fr4</t>
-  </si>
-  <si>
-    <t>fr7fr5</t>
+    <t>江俞學</t>
+  </si>
+  <si>
+    <t>r20bj4</t>
+  </si>
+  <si>
+    <t>dx69e6</t>
+  </si>
+  <si>
+    <t>南屯區黎明國中</t>
+  </si>
+  <si>
+    <t>林元靖</t>
+  </si>
+  <si>
+    <t>林麗文</t>
+  </si>
+  <si>
+    <t>n64y7</t>
+  </si>
+  <si>
+    <t>whp42an3</t>
   </si>
   <si>
     <t>南區崇倫國中</t>
   </si>
   <si>
-    <t>田穎璇</t>
-  </si>
-  <si>
-    <t>吳維慈</t>
-  </si>
-  <si>
-    <t>Windows 小畫家3D</t>
-  </si>
-  <si>
-    <t>xbj21hp6</t>
-  </si>
-  <si>
-    <t>f17et7</t>
-  </si>
-  <si>
     <t>江忻煖</t>
   </si>
   <si>
     <t>汪佳怡</t>
   </si>
   <si>
-    <t>pe88t2</t>
-  </si>
-  <si>
-    <t>yg9b7</t>
+    <t>m63cd2</t>
+  </si>
+  <si>
+    <t>n26fr1</t>
+  </si>
+  <si>
+    <t>楊宜潔</t>
+  </si>
+  <si>
+    <t>蔡明希</t>
+  </si>
+  <si>
+    <t>myg94j3</t>
+  </si>
+  <si>
+    <t>wh76hp5</t>
+  </si>
+  <si>
+    <t>林宜恩</t>
+  </si>
+  <si>
+    <t>f40h9</t>
+  </si>
+  <si>
+    <t>kf82an7</t>
   </si>
   <si>
     <t>烏日區光德國中</t>
   </si>
   <si>
-    <t>陳欣渝</t>
+    <t>林慈佳</t>
+  </si>
+  <si>
+    <t>陳立唐</t>
+  </si>
+  <si>
+    <t>kf95r5</t>
+  </si>
+  <si>
+    <t>xb51bj7</t>
+  </si>
+  <si>
+    <t>黃雅莉</t>
   </si>
   <si>
     <t>林家輝</t>
   </si>
   <si>
-    <t>rs75f5</t>
-  </si>
-  <si>
-    <t>kf25m8</t>
+    <t>jk37c1</t>
+  </si>
+  <si>
+    <t>m18t7</t>
+  </si>
+  <si>
+    <t>鄭芷薇</t>
+  </si>
+  <si>
+    <t>wh76xb7</t>
+  </si>
+  <si>
+    <t>jk80r6</t>
+  </si>
+  <si>
+    <t>林姵含</t>
+  </si>
+  <si>
+    <t>my72a6</t>
+  </si>
+  <si>
+    <t>m69r9</t>
   </si>
   <si>
     <t>烏日區明道中學</t>
   </si>
   <si>
-    <t>木村芳禎</t>
-  </si>
-  <si>
-    <t>葉珊伶</t>
-  </si>
-  <si>
-    <t>j63wh6</t>
-  </si>
-  <si>
-    <t>pe56y2</t>
-  </si>
-  <si>
-    <t>林鼎原</t>
-  </si>
-  <si>
-    <t>yg85g4</t>
-  </si>
-  <si>
-    <t>p55x1</t>
-  </si>
-  <si>
-    <t>清水區清水國中</t>
-  </si>
-  <si>
-    <t>孫若槐</t>
-  </si>
-  <si>
-    <t>黄天建</t>
-  </si>
-  <si>
-    <t>rs6rs2</t>
-  </si>
-  <si>
-    <t>y71kf5</t>
-  </si>
-  <si>
-    <t>豐原區豐東國中</t>
-  </si>
-  <si>
-    <t>吳恣宜</t>
-  </si>
-  <si>
-    <t>曾希正</t>
-  </si>
-  <si>
-    <t>gw4s4</t>
-  </si>
-  <si>
-    <t>smy9j8</t>
-  </si>
-  <si>
-    <t>豐原區豐南國中</t>
-  </si>
-  <si>
-    <t>籃宇蓁</t>
-  </si>
-  <si>
-    <t>陳鈺錡</t>
-  </si>
-  <si>
-    <t>my11pe4</t>
-  </si>
-  <si>
-    <t>p17nc8</t>
-  </si>
-  <si>
-    <t>廖翊婷</t>
-  </si>
-  <si>
-    <t>x52yg6</t>
-  </si>
-  <si>
-    <t>x97v4</t>
-  </si>
-  <si>
-    <t>高鈴琬</t>
-  </si>
-  <si>
-    <t>r25t6</t>
-  </si>
-  <si>
-    <t>cd44w5</t>
+    <t>林姵儀</t>
+  </si>
+  <si>
+    <t>周壽祖</t>
+  </si>
+  <si>
+    <t>p47hp7</t>
+  </si>
+  <si>
+    <t>ygw20j4</t>
+  </si>
+  <si>
+    <t>蔡芳宸</t>
+  </si>
+  <si>
+    <t>d38j3</t>
+  </si>
+  <si>
+    <t>jk91s3</t>
+  </si>
+  <si>
+    <t>潭子區潭秀國中</t>
+  </si>
+  <si>
+    <t>林欣慧</t>
+  </si>
+  <si>
+    <t>王金村</t>
+  </si>
+  <si>
+    <t>fr69hp1</t>
+  </si>
+  <si>
+    <t>f8an3</t>
   </si>
 </sst>
 </file>
@@ -1678,11 +1678,11 @@
     <col min="1" max="1" width="3.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1771,22 +1771,22 @@
         <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1797,22 +1797,22 @@
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1823,22 +1823,22 @@
         <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="G6" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1849,22 +1849,22 @@
         <v>8</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>32</v>
-      </c>
       <c r="F7" s="8" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1875,22 +1875,22 @@
         <v>8</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1901,22 +1901,22 @@
         <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1927,22 +1927,22 @@
         <v>8</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1953,22 +1953,22 @@
         <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1979,22 +1979,22 @@
         <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2005,22 +2005,22 @@
         <v>8</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2031,22 +2031,22 @@
         <v>8</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2057,22 +2057,22 @@
         <v>8</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2083,22 +2083,22 @@
         <v>8</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2109,22 +2109,22 @@
         <v>8</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2135,22 +2135,22 @@
         <v>8</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2161,22 +2161,22 @@
         <v>8</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2187,22 +2187,22 @@
         <v>8</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2213,22 +2213,22 @@
         <v>8</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2239,22 +2239,22 @@
         <v>8</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2265,22 +2265,22 @@
         <v>8</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2291,22 +2291,22 @@
         <v>8</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2317,22 +2317,22 @@
         <v>8</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2343,22 +2343,22 @@
         <v>8</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2369,22 +2369,22 @@
         <v>8</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D27" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E27" s="8" t="s">
-        <v>111</v>
-      </c>
       <c r="F27" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2395,22 +2395,22 @@
         <v>8</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2421,22 +2421,22 @@
         <v>8</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2447,22 +2447,22 @@
         <v>8</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2473,22 +2473,22 @@
         <v>8</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2499,22 +2499,22 @@
         <v>8</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2525,22 +2525,22 @@
         <v>8</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2551,22 +2551,22 @@
         <v>8</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2577,22 +2577,22 @@
         <v>8</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2603,22 +2603,22 @@
         <v>8</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2629,22 +2629,22 @@
         <v>8</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2655,13 +2655,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>12</v>
@@ -2681,22 +2681,22 @@
         <v>8</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2707,22 +2707,22 @@
         <v>8</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2733,22 +2733,22 @@
         <v>8</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2759,22 +2759,22 @@
         <v>8</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>178</v>
+        <v>21</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2785,22 +2785,22 @@
         <v>8</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>178</v>
+        <v>21</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2811,22 +2811,22 @@
         <v>8</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2837,22 +2837,22 @@
         <v>8</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2863,22 +2863,22 @@
         <v>8</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2889,16 +2889,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G47" s="8" t="s">
         <v>201</v>
@@ -2915,22 +2915,22 @@
         <v>8</v>
       </c>
       <c r="C48" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="E48" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="H48" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2941,22 +2941,22 @@
         <v>8</v>
       </c>
       <c r="C49" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E49" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="F49" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="H49" s="8" t="s">
         <v>210</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2967,22 +2967,22 @@
         <v>8</v>
       </c>
       <c r="C50" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="F50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="H50" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="51" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2993,16 +2993,16 @@
         <v>8</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D51" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E51" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="E51" s="8" t="s">
-        <v>210</v>
-      </c>
       <c r="F51" s="8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>217</v>
